--- a/backend/web/uplaod/template/info.xlsx
+++ b/backend/web/uplaod/template/info.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>小区</t>
   </si>
@@ -35,24 +35,45 @@
     <t>房屋面积</t>
   </si>
   <si>
-    <t>水漾人家</t>
-  </si>
-  <si>
-    <t>1栋</t>
-  </si>
-  <si>
     <t>135</t>
   </si>
   <si>
-    <t>1001</t>
+    <t>业主姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建材家居广场</t>
+  </si>
+  <si>
+    <t>6栋</t>
+  </si>
+  <si>
+    <t>4053</t>
+  </si>
+  <si>
+    <t>房号（第一位数1代表单元，如果只有一个单元请忽略）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未交房</t>
+  </si>
+  <si>
+    <t>5328428</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -67,6 +88,19 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -128,7 +162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,6 +176,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,19 +459,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="251" width="18.625" style="2" customWidth="1"/>
-    <col min="252" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="18.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.875" style="2" customWidth="1"/>
+    <col min="5" max="254" width="18.625" style="2" customWidth="1"/>
+    <col min="255" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -441,28 +483,46 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="19.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.50972222222222197" footer="0.50972222222222197"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>

--- a/backend/web/uplaod/template/info.xlsx
+++ b/backend/web/uplaod/template/info.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\主管坐骑\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\new\backend\web\uplaod\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>小区</t>
   </si>
@@ -29,9 +29,6 @@
     <t>楼宇</t>
   </si>
   <si>
-    <t>单元编号</t>
-  </si>
-  <si>
     <t>房屋面积</t>
   </si>
   <si>
@@ -59,20 +56,41 @@
     <t>4053</t>
   </si>
   <si>
-    <t>房号（第一位数1代表单元，如果只有一个单元请忽略）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>未交房</t>
   </si>
   <si>
     <t>5328428</t>
+  </si>
+  <si>
+    <t>房号（第一位数1代表单元，
+如果只有一个单元请忽略）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元编号(默认为1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>135</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3栋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -178,11 +196,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -458,11 +476,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -473,7 +491,7 @@
     <col min="255" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="19.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="33.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -481,42 +499,65 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.149999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -528,7 +569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -543,7 +584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
